--- a/src/test/java/com/oner365/test/util/excel/0408最新台账.xlsx
+++ b/src/test/java/com/oner365/test/util/excel/0408最新台账.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoliu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoliu/gitee/oner365-springboot/src/test/java/com/oner365/test/util/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764A1AC-A21E-8E42-9E14-A57334758D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3C36F-07C1-8742-8895-C1909C7D1D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24340" windowHeight="12460" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24340" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="总表" sheetId="1" r:id="rId1"/>
+    <sheet name="总表" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="一部" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -14303,7 +14303,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -14428,10 +14428,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14455,11 +14455,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14758,12 +14758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" s="2" t="s">
@@ -50423,25 +50423,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>4736</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>4741</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>4737</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>4738</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>4739</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>4740</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>4742</v>
       </c>
     </row>
